--- a/_LEGACY/DSoFS_New_Wow.xlsx
+++ b/_LEGACY/DSoFS_New_Wow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tori-San\Books\My Book and For My Book\Inform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eilrovisoft\books\Alone World\_LEGACY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20486" windowHeight="9496"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -733,16 +733,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="8" width="36.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -787,8 +787,7 @@
       <c r="E2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4"/>
@@ -807,8 +806,7 @@
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="5"/>
@@ -822,7 +820,6 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +831,6 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,8 +847,7 @@
       <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="5"/>
@@ -869,8 +864,7 @@
       <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,8 +877,7 @@
       <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,8 +890,7 @@
       <c r="E9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,13 +907,12 @@
       <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1026,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1470,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1536,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1610,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1694,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="25.85" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1765,28 +1756,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B29:B37"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="B56:B64"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="B65:B73"/>
     <mergeCell ref="A69:A72"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
